--- a/titre/titre-liste.xlsx
+++ b/titre/titre-liste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE0B63E-6085-43EA-84A7-4D1A4F1714A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8F6E32-D109-4779-B762-56584C3272DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>titreNumber</t>
   </si>
@@ -53,7 +53,7 @@
     <t>special_indice</t>
   </si>
   <si>
-    <t>TITRE100</t>
+    <t>TITRE4</t>
   </si>
   <si>
     <t>IBN TOFAIL</t>
@@ -77,7 +77,7 @@
     <t>BIS</t>
   </si>
   <si>
-    <t>TITRE101</t>
+    <t>TITRE5</t>
   </si>
   <si>
     <t>MEHDI RAMI</t>
@@ -101,7 +101,7 @@
     <t>BIS1</t>
   </si>
   <si>
-    <t>TITRE102</t>
+    <t>TITRE6</t>
   </si>
   <si>
     <t>ZINED HAYATI</t>
@@ -125,7 +125,7 @@
     <t>BIS2</t>
   </si>
   <si>
-    <t>TITRE103</t>
+    <t>TITRE7</t>
   </si>
   <si>
     <t>ZENAD ABDESSADEK</t>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>BIS3</t>
+  </si>
+  <si>
+    <t>TITRE8</t>
+  </si>
+  <si>
+    <t>KHADIJA JAOUADI</t>
+  </si>
+  <si>
+    <t>D8</t>
   </si>
 </sst>
 </file>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,12 +662,39 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E4668CAA-DD67-4520-B889-C5D814E033FD}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{60C951B3-AB8A-4D16-AA5D-91296D1DE00B}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{9C4E404D-751E-4F99-9B47-304668FBD37D}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{F12415C3-737C-4EE6-BBE7-6CDEF118DF1F}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{C6C09582-1414-4E53-BDEA-A477DBEE7623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
